--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091787</v>
+        <v>9630586.081252646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091787</v>
+        <v>9630586.081252646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2479.029038399883</v>
+        <v>154082.098096268</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2479.029038399883</v>
+        <v>154082.098096268</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265565305.544777</v>
+        <v>51533732.61014833</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10332.15483255873</v>
+        <v>1129828.266763404</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20089.03539899703</v>
+        <v>2169334.391576175</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29843.14424826361</v>
+        <v>3208288.944671775</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40015.53200123346</v>
+        <v>4260985.499915863</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50119.02278450633</v>
+        <v>5299971.558190254</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60222.51356777919</v>
+        <v>6338957.616464645</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70326.00435105205</v>
+        <v>7377943.674739031</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80429.4951343249</v>
+        <v>8416929.733013418</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91070.8083131217</v>
+        <v>9445915.590924896</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101613.0882031104</v>
+        <v>10461080.39484033</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111946.5250625749</v>
+        <v>11499748.70419667</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121981.1188761508</v>
+        <v>12525024.26550137</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132084.6096594236</v>
+        <v>13564010.32377577</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142188.1004426965</v>
+        <v>14602996.38205017</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152304.6436510039</v>
+        <v>15639617.44297879</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
@@ -27052,10 +27052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
